--- a/RPA CertificationTraining/RPA Advance Training/Generate Yearly Report - Assignment/Generate Yearly Report - Dispatcher/Data/Config.xlsx
+++ b/RPA CertificationTraining/RPA Advance Training/Generate Yearly Report - Assignment/Generate Yearly Report - Dispatcher/Data/Config.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="-120" windowWidth="19560" windowHeight="11760"/>
@@ -11,7 +11,7 @@
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -546,7 +546,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -557,15 +557,15 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="68" customWidth="1"/>
-    <col min="2" max="2" width="70.140625" customWidth="1"/>
-    <col min="3" max="3" width="68.5703125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="68.5546875" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -667,7 +667,7 @@
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="2"/>
@@ -1730,12 +1730,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
     <col min="3" max="3" width="89" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2942,9 +2942,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
